--- a/docs/设备维保信息字典.xlsx
+++ b/docs/设备维保信息字典.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B309DB-18B2-448E-969D-7A71588EB308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B1BF4D-1A31-4B79-9B6F-FED57C0952A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="22524" windowHeight="10284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设备维保" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,9 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">设备维保!$A$1:$AE$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">设备维保!$A$1:$AE$32</definedName>
     <definedName name="_prefix">[1]设备数据!$I$5</definedName>
     <definedName name="AAA_DOCTOPS" hidden="1">"AAA_SET"</definedName>
     <definedName name="AAA_duser" hidden="1">"OFF"</definedName>
@@ -41,8 +40,8 @@
     <definedName name="gggg" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="hg" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="k" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
-    <definedName name="select_itembuildtype">[3]建设性质!$A$2:$A$65536</definedName>
-    <definedName name="select_jsdw">[3]建设单位!$A$2:$A$65536</definedName>
+    <definedName name="select_itembuildtype">[2]建设性质!$A$2:$A$65536</definedName>
+    <definedName name="select_jsdw">[2]建设单位!$A$2:$A$65536</definedName>
     <definedName name="TACS1" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="TACS3" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="wrn.output." hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
@@ -53,7 +52,7 @@
     <definedName name="怎么2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="资金规划关键控制指标体系" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="综合" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
-    <definedName name="总计.公式2">[4]表五!$D$20</definedName>
+    <definedName name="总计.公式2">[3]表五!$D$20</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -71,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="160">
   <si>
     <t>序号</t>
   </si>
@@ -399,227 +398,239 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>郭钟元</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天融信</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZTE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSV_INSPUR</t>
+  </si>
+  <si>
+    <t>CJB</t>
+  </si>
+  <si>
+    <t>华三</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EV_S_H3C</t>
+  </si>
+  <si>
+    <t>PSV_DELL</t>
+  </si>
+  <si>
+    <t>EV_S_FH</t>
+  </si>
+  <si>
+    <t>曙光</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSV_SUGON</t>
+  </si>
+  <si>
+    <t>HONGX</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>ZK</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>锐捷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>EV_S_DPX</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>EV_S_SXF</t>
+  </si>
+  <si>
+    <t>奇安信</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>QAX</t>
+  </si>
+  <si>
+    <t>EV_S_NSFOCUS</t>
+  </si>
+  <si>
+    <t>EV_S_Avocent</t>
+  </si>
+  <si>
+    <t>EV_S_TG</t>
+  </si>
+  <si>
+    <t>同方</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSV_GREATWALL</t>
+  </si>
+  <si>
+    <t>启明星辰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>QMXC</t>
+  </si>
+  <si>
+    <t>孙志</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4008229999</t>
+  </si>
+  <si>
+    <t>4006059110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4006306430</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILLSTONE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿盟科技</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4008876510</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4006105119</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8008106038</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>021-61651266</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13311327171</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐坚</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦俊魁/赵智华/田浩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李嘉磊/刘洋/李浩杰/王旭东</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓世龙/翟世全/孙志</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自购机之日起三年(含)</t>
+  </si>
+  <si>
+    <t>7×24*30分钟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7×24*1小时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7×24*10分钟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>240分钟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络设备</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原厂联系人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华讯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华三</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴尔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Avocent</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭钟元</t>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>天融信</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌编码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZTE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪潮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSV_INSPUR</t>
-  </si>
-  <si>
-    <t>CJB</t>
-  </si>
-  <si>
-    <t>华三</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>EV_S_H3C</t>
-  </si>
-  <si>
-    <t>PSV_DELL</t>
-  </si>
-  <si>
-    <t>EV_S_FH</t>
-  </si>
-  <si>
-    <t>曙光</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSV_SUGON</t>
-  </si>
-  <si>
-    <t>HONGX</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>ZK</t>
-  </si>
-  <si>
-    <t>HQ</t>
-  </si>
-  <si>
-    <t>锐捷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>华为</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>HW</t>
-  </si>
-  <si>
-    <t>EV_S_DPX</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>EV_S_SXF</t>
-  </si>
-  <si>
-    <t>奇安信</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>QAX</t>
-  </si>
-  <si>
-    <t>EV_S_NSFOCUS</t>
-  </si>
-  <si>
-    <t>EV_S_Avocent</t>
-  </si>
-  <si>
-    <t>EV_S_TG</t>
-  </si>
-  <si>
-    <t>同方</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>长城</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSV_GREATWALL</t>
-  </si>
-  <si>
-    <t>启明星辰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>QMXC</t>
-  </si>
-  <si>
-    <t>孙志</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4008229999</t>
-  </si>
-  <si>
-    <t>4006059110</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4006306430</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>HILLSTONE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深信服</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿盟科技</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4008876510</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4006105119</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8008106038</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>021-61651266</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>13311327171</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐坚</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦俊魁/赵智华/田浩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>李嘉磊/刘洋/李浩杰/王旭东</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓世龙/翟世全/孙志</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自购机之日起三年(含)</t>
-  </si>
-  <si>
-    <t>7×24*30分钟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7×24*1小时</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7×24*10分钟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>240分钟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络设备</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>原厂联系人</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1054,52 +1065,6 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="说明（请勿修改此页内容）"/>
-      <sheetName val="字典表"/>
-      <sheetName val="设备维保"/>
-      <sheetName val="厂商"/>
-      <sheetName val="型号"/>
-      <sheetName val="字典表-备份"/>
-      <sheetName val="SNMP"/>
-      <sheetName val="带外账户"/>
-      <sheetName val="VM规划"/>
-      <sheetName val="安全组件"/>
-      <sheetName val="设备编码"/>
-      <sheetName val="品牌字典表"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="产品线字典(待补充)"/>
-      <sheetName val="设备业务类型字典表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="项目属性"/>
       <sheetName val="建设性质"/>
@@ -1144,7 +1109,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1445,13 +1410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFF7E82-D13D-4D78-896B-BF841824E9C6}">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1498,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="48" t="s">
         <v>2</v>
@@ -1513,10 +1478,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J1" s="48" t="s">
         <v>7</v>
@@ -1525,7 +1490,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M1" s="48" t="s">
         <v>9</v>
@@ -1593,7 +1558,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>25</v>
@@ -1655,25 +1620,25 @@
         <v>18686047699</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD2" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,10 +1646,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>25</v>
@@ -1746,25 +1711,25 @@
         <v>15247144297</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z3" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB3" s="7" t="s">
         <v>40</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD3" s="7" t="s">
         <v>40</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1775,7 +1740,7 @@
         <v>91</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>25</v>
@@ -1843,19 +1808,19 @@
         <v>39</v>
       </c>
       <c r="AA4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB4" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="AB4" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="AC4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD4" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="AD4" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="AE4" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1863,10 +1828,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>104</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>105</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>25</v>
@@ -1884,7 +1849,7 @@
         <v>64</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>31</v>
@@ -1928,33 +1893,36 @@
         <v>18647963715</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AA5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB5" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="AB5" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="AC5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD5" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="AD5" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="AE5" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>65</v>
+    <row r="6" spans="1:31" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>25</v>
@@ -1968,11 +1936,11 @@
       <c r="G6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="8">
-        <v>13366741856</v>
+      <c r="H6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>31</v>
@@ -1992,57 +1960,57 @@
       <c r="O6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="30"/>
+      <c r="P6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="27"/>
       <c r="S6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="T6" s="9">
-        <v>4008845117</v>
+        <v>4008100504</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="8">
+        <v>18610488558</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" s="7">
+        <v>18647963715</v>
+      </c>
+      <c r="Y6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="V6" s="8">
-        <v>18501619888</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Z6" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AA6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB6" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="AB6" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="AC6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD6" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="AD6" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="AE6" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>107</v>
+        <v>65</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>105</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>25</v>
@@ -2056,11 +2024,11 @@
       <c r="G7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>86</v>
+      <c r="H7" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="I7" s="8">
-        <v>13639971034</v>
+        <v>13366741856</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -2088,14 +2056,14 @@
       <c r="S7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T7" s="33">
-        <v>4008890787</v>
-      </c>
-      <c r="U7" s="33" t="s">
-        <v>86</v>
+      <c r="T7" s="9">
+        <v>4008845117</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="V7" s="8">
-        <v>13639971034</v>
+        <v>18501619888</v>
       </c>
       <c r="W7" s="7" t="s">
         <v>32</v>
@@ -2110,27 +2078,27 @@
         <v>39</v>
       </c>
       <c r="AA7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB7" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="AB7" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="AC7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD7" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="AD7" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="AE7" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>109</v>
+      <c r="B8" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>105</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>25</v>
@@ -2144,11 +2112,11 @@
       <c r="G8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>78</v>
+      <c r="H8" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="I8" s="8">
-        <v>18001051428</v>
+        <v>13366741856</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>31</v>
@@ -2176,14 +2144,14 @@
       <c r="S8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T8" s="33">
-        <v>4008100466</v>
-      </c>
-      <c r="U8" s="33" t="s">
-        <v>78</v>
+      <c r="T8" s="9">
+        <v>4008845117</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="V8" s="8">
-        <v>18001051428</v>
+        <v>18501619888</v>
       </c>
       <c r="W8" s="7" t="s">
         <v>32</v>
@@ -2198,27 +2166,27 @@
         <v>39</v>
       </c>
       <c r="AA8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="AB8" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="AC8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="AD8" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="AE8" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>110</v>
+      <c r="B9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>25</v>
@@ -2232,11 +2200,11 @@
       <c r="G9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>74</v>
+      <c r="H9" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="I9" s="8">
-        <v>18611897101</v>
+        <v>13639971034</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>31</v>
@@ -2265,13 +2233,13 @@
         <v>37</v>
       </c>
       <c r="T9" s="33">
-        <v>4000870780</v>
-      </c>
-      <c r="U9" s="22" t="s">
-        <v>74</v>
+        <v>4008890787</v>
+      </c>
+      <c r="U9" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="V9" s="8">
-        <v>18611897101</v>
+        <v>13639971034</v>
       </c>
       <c r="W9" s="7" t="s">
         <v>32</v>
@@ -2286,27 +2254,27 @@
         <v>39</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB9" s="8" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="AB9" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD9" s="8" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="AD9" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="AE9" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>25</v>
@@ -2320,11 +2288,11 @@
       <c r="G10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="45" t="s">
-        <v>77</v>
+      <c r="H10" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="I10" s="8">
-        <v>13501205434</v>
+        <v>18001051428</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>31</v>
@@ -2353,13 +2321,13 @@
         <v>37</v>
       </c>
       <c r="T10" s="33">
-        <v>4008870872</v>
-      </c>
-      <c r="U10" s="45" t="s">
-        <v>77</v>
+        <v>4008100466</v>
+      </c>
+      <c r="U10" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="V10" s="8">
-        <v>13501205434</v>
+        <v>18001051428</v>
       </c>
       <c r="W10" s="7" t="s">
         <v>32</v>
@@ -2374,27 +2342,27 @@
         <v>39</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AB10" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD10" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>25</v>
@@ -2408,11 +2376,11 @@
       <c r="G11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>32</v>
+      <c r="H11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="8">
+        <v>18611897101</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -2441,11 +2409,13 @@
         <v>37</v>
       </c>
       <c r="T11" s="33">
-        <v>4008981286</v>
-      </c>
-      <c r="U11" s="42"/>
-      <c r="V11" s="7" t="s">
-        <v>32</v>
+        <v>4000870780</v>
+      </c>
+      <c r="U11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" s="8">
+        <v>18611897101</v>
       </c>
       <c r="W11" s="7" t="s">
         <v>32</v>
@@ -2460,27 +2430,27 @@
         <v>39</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB11" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD11" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE11" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>25</v>
@@ -2494,11 +2464,11 @@
       <c r="G12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>32</v>
+      <c r="H12" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="8">
+        <v>13501205434</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>31</v>
@@ -2526,12 +2496,14 @@
       <c r="S12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T12" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="U12" s="42"/>
-      <c r="V12" s="7" t="s">
-        <v>32</v>
+      <c r="T12" s="33">
+        <v>4008870872</v>
+      </c>
+      <c r="U12" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="V12" s="8">
+        <v>13501205434</v>
       </c>
       <c r="W12" s="7" t="s">
         <v>32</v>
@@ -2546,27 +2518,27 @@
         <v>39</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB12" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD12" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE12" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>25</v>
@@ -2613,7 +2585,7 @@
         <v>37</v>
       </c>
       <c r="T13" s="33">
-        <v>4006105888</v>
+        <v>4008981286</v>
       </c>
       <c r="U13" s="42"/>
       <c r="V13" s="7" t="s">
@@ -2632,27 +2604,27 @@
         <v>39</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB13" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD13" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE13" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>129</v>
+        <v>88</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>112</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>25</v>
@@ -2698,8 +2670,8 @@
       <c r="S14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T14" s="33">
-        <v>4008653885</v>
+      <c r="T14" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="U14" s="42"/>
       <c r="V14" s="7" t="s">
@@ -2718,74 +2690,76 @@
         <v>39</v>
       </c>
       <c r="AA14" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB14" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD14" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE14" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="31" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="36" t="s">
+    <row r="15" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="37">
-        <v>18911723423</v>
-      </c>
-      <c r="J15" s="34" t="s">
+      <c r="H15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="34" t="s">
+      <c r="K15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="34" t="s">
+      <c r="N15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="34" t="s">
+      <c r="O15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="36" t="s">
+      <c r="P15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="34" t="s">
+      <c r="Q15" s="8"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="T15" s="33">
-        <v>4008787229</v>
-      </c>
-      <c r="U15" s="32"/>
+        <v>4006105888</v>
+      </c>
+      <c r="U15" s="42"/>
       <c r="V15" s="7" t="s">
         <v>32</v>
       </c>
@@ -2802,74 +2776,76 @@
         <v>39</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AB15" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC15" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AD15" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE15" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="31" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="36" t="s">
+    <row r="16" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="37">
-        <v>18570037575</v>
-      </c>
-      <c r="J16" s="34" t="s">
+      <c r="H16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="34" t="s">
+      <c r="K16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="34" t="s">
+      <c r="N16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="34" t="s">
+      <c r="O16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P16" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="34" t="s">
+      <c r="P16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="T16" s="33">
-        <v>4009600082</v>
-      </c>
-      <c r="U16" s="32"/>
+        <v>4008653885</v>
+      </c>
+      <c r="U16" s="42"/>
       <c r="V16" s="7" t="s">
         <v>32</v>
       </c>
@@ -2886,24 +2862,24 @@
         <v>39</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AB16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AD16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE16" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:31" s="31" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="36" t="s">
@@ -2919,10 +2895,10 @@
         <v>28</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="37">
-        <v>18638396333</v>
+        <v>18911723423</v>
       </c>
       <c r="J17" s="34" t="s">
         <v>31</v>
@@ -2951,7 +2927,7 @@
         <v>37</v>
       </c>
       <c r="T17" s="33">
-        <v>4000967667</v>
+        <v>4008787229</v>
       </c>
       <c r="U17" s="32"/>
       <c r="V17" s="7" t="s">
@@ -2970,24 +2946,24 @@
         <v>39</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB17" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD17" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE17" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:31" s="31" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="36" t="s">
@@ -3002,11 +2978,11 @@
       <c r="G18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="38" t="s">
-        <v>80</v>
+      <c r="H18" s="41" t="s">
+        <v>84</v>
       </c>
       <c r="I18" s="37">
-        <v>15230417928</v>
+        <v>18570037575</v>
       </c>
       <c r="J18" s="34" t="s">
         <v>31</v>
@@ -3027,7 +3003,7 @@
         <v>48</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="Q18" s="36"/>
       <c r="R18" s="35"/>
@@ -3035,7 +3011,7 @@
         <v>37</v>
       </c>
       <c r="T18" s="33">
-        <v>4009109998</v>
+        <v>4009600082</v>
       </c>
       <c r="U18" s="32"/>
       <c r="V18" s="7" t="s">
@@ -3054,215 +3030,201 @@
         <v>39</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB18" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD18" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE18" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
-        <v>5</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="7" t="s">
+    <row r="19" spans="1:31" s="31" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="14">
-        <v>18521304966</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="H19" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="37">
+        <v>18638396333</v>
+      </c>
+      <c r="J19" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="7" t="s">
+      <c r="K19" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="7" t="s">
+      <c r="P19" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="T19" s="9">
-        <v>4008111000</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="V19" s="9">
-        <v>18521304966</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X19" s="7">
-        <v>18347140054</v>
+      <c r="T19" s="33">
+        <v>4000967667</v>
+      </c>
+      <c r="U19" s="32"/>
+      <c r="V19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Z19" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB19" s="7" t="s">
-        <v>45</v>
+        <v>149</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD19" s="7" t="s">
-        <v>45</v>
+        <v>149</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="AE19" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
-        <v>4</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="7" t="s">
+    <row r="20" spans="1:31" s="31" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="H20" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="37">
+        <v>15230417928</v>
+      </c>
+      <c r="J20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="K20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="7" t="s">
+      <c r="P20" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="T20" s="9">
-        <v>4008100504</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="T20" s="33">
+        <v>4009109998</v>
+      </c>
+      <c r="U20" s="32"/>
       <c r="V20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X20" s="7">
-        <v>18647963715</v>
+      <c r="W20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Z20" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AA20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB20" s="7" t="s">
-        <v>45</v>
+        <v>149</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD20" s="7" t="s">
-        <v>45</v>
+        <v>149</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="AE20" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:31" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
-        <v>2</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>81</v>
@@ -3273,11 +3235,11 @@
       <c r="G21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>79</v>
+      <c r="H21" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="I21" s="14">
-        <v>18189243756</v>
+        <v>18521304966</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>31</v>
@@ -3292,68 +3254,68 @@
         <v>33</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="28"/>
       <c r="R21" s="27"/>
       <c r="S21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T21" s="9" t="s">
-        <v>62</v>
+      <c r="T21" s="9">
+        <v>4008111000</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="V21" s="9">
-        <v>18447072651</v>
+        <v>18521304966</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="X21" s="7">
-        <v>18686047699</v>
+        <v>18347140054</v>
       </c>
       <c r="Y21" s="7" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="Z21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE21" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>10</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>116</v>
+    <row r="22" spans="1:31" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>81</v>
@@ -3364,11 +3326,11 @@
       <c r="G22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="14">
-        <v>17310889627</v>
+      <c r="H22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>31</v>
@@ -3382,67 +3344,69 @@
       <c r="M22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="24" t="s">
-        <v>26</v>
+      <c r="N22" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="22"/>
+        <v>49</v>
+      </c>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="27"/>
       <c r="S22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T22" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="U22" s="9"/>
+      <c r="T22" s="9">
+        <v>4008100504</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="V22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="X22" s="7" t="s">
-        <v>32</v>
+      <c r="W22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X22" s="7">
+        <v>18647963715</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="Z22" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB22" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD22" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE22" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="13" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>6</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>58</v>
+    <row r="23" spans="1:31" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>81</v>
@@ -3453,11 +3417,11 @@
       <c r="G23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="14">
-        <v>18611329140</v>
+      <c r="H23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>31</v>
@@ -3477,61 +3441,63 @@
       <c r="O23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="30"/>
+      <c r="P23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="27"/>
       <c r="S23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="W23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="X23" s="7" t="s">
-        <v>32</v>
+      <c r="T23" s="9">
+        <v>4008100504</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X23" s="7">
+        <v>18647963715</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="Z23" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB23" s="8" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="AB23" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD23" s="8" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="AD23" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="AE23" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="13" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>7</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>136</v>
+    <row r="24" spans="1:31" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
+        <v>2</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>81</v>
@@ -3542,11 +3508,11 @@
       <c r="G24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>32</v>
+      <c r="H24" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="14">
+        <v>18189243756</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>31</v>
@@ -3561,52 +3527,54 @@
         <v>33</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="30"/>
+        <v>43</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="27"/>
       <c r="S24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="W24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="X24" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V24" s="9">
+        <v>18447072651</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X24" s="7">
+        <v>18686047699</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="Z24" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB24" s="8" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="AB24" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD24" s="8" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="AD24" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="AE24" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3614,13 +3582,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>81</v>
@@ -3632,10 +3600,10 @@
         <v>28</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" s="14">
-        <v>18910175320</v>
+        <v>17310889627</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>31</v>
@@ -3664,7 +3632,7 @@
         <v>37</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="7" t="s">
@@ -3683,33 +3651,33 @@
         <v>39</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB25" s="8" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="AB25" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="AC25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD25" s="8" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="AD25" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="AE25" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:31" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
-        <v>9</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>137</v>
+    <row r="26" spans="1:31" s="13" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>81</v>
@@ -3720,11 +3688,11 @@
       <c r="G26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>54</v>
+      <c r="H26" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="I26" s="14">
-        <v>17747963091</v>
+        <v>18611329140</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>31</v>
@@ -3742,65 +3710,63 @@
         <v>47</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="27"/>
+        <v>48</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="30"/>
       <c r="S26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="V26" s="9">
-        <v>17747963091</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X26" s="7">
-        <v>17747963091</v>
+        <v>59</v>
+      </c>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="W26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="Y26" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="Z26" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB26" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC26" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD26" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE26" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" s="13" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
-        <v>5</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>121</v>
+        <v>7</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>81</v>
@@ -3811,11 +3777,11 @@
       <c r="G27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="14">
-        <v>18701009869</v>
+      <c r="H27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>31</v>
@@ -3829,29 +3795,29 @@
       <c r="M27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N27" s="24" t="s">
-        <v>26</v>
+      <c r="N27" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="30"/>
       <c r="S27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T27" s="9">
-        <v>95015</v>
+      <c r="T27" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="U27" s="9"/>
-      <c r="V27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="W27" s="7" t="s">
-        <v>32</v>
+      <c r="V27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W27" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>32</v>
@@ -3863,30 +3829,33 @@
         <v>39</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB27" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC27" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD27" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE27" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="20" t="s">
-        <v>138</v>
+    <row r="28" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>10</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>81</v>
@@ -3897,11 +3866,11 @@
       <c r="G28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="19" t="s">
-        <v>94</v>
+      <c r="H28" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="I28" s="14">
-        <v>13301331382</v>
+        <v>18910175320</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>31</v>
@@ -3915,24 +3884,24 @@
       <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="7" t="s">
-        <v>47</v>
+      <c r="N28" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="22"/>
       <c r="S28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T28" s="9">
-        <v>4008186868</v>
-      </c>
-      <c r="U28" s="18"/>
+      <c r="T28" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="U28" s="9"/>
       <c r="V28" s="7" t="s">
         <v>32</v>
       </c>
@@ -3949,33 +3918,33 @@
         <v>39</v>
       </c>
       <c r="AA28" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB28" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC28" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD28" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE28" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>5</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>95</v>
+    <row r="29" spans="1:31" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
+        <v>9</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>81</v>
@@ -3986,14 +3955,14 @@
       <c r="G29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="16" t="s">
-        <v>96</v>
+      <c r="H29" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="I29" s="14">
-        <v>18515294666</v>
+        <v>17747963091</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>32</v>
@@ -4004,67 +3973,69 @@
       <c r="M29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="8" t="s">
-        <v>36</v>
+      <c r="N29" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="10"/>
+      <c r="P29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="27"/>
       <c r="S29" s="7" t="s">
         <v>37</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="U29" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="V29" s="9">
-        <v>4008876526</v>
-      </c>
-      <c r="W29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="X29" s="7" t="s">
-        <v>32</v>
+        <v>17747963091</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X29" s="7">
+        <v>17747963091</v>
       </c>
       <c r="Y29" s="7" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="Z29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB29" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC29" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD29" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE29" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>5</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>98</v>
+      <c r="B30" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>81</v>
@@ -4075,14 +4046,14 @@
       <c r="G30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="15" t="s">
-        <v>132</v>
+      <c r="H30" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="I30" s="14">
-        <v>18621774035</v>
+        <v>18701009869</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>32</v>
@@ -4093,29 +4064,29 @@
       <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N30" s="8" t="s">
-        <v>36</v>
+      <c r="N30" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="10"/>
+      <c r="P30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="22"/>
       <c r="S30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T30" s="9" t="s">
-        <v>140</v>
+      <c r="T30" s="9">
+        <v>95015</v>
       </c>
       <c r="U30" s="9"/>
-      <c r="V30" s="9">
-        <v>4008876526</v>
-      </c>
-      <c r="W30" s="8" t="s">
-        <v>56</v>
+      <c r="V30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="X30" s="7" t="s">
         <v>32</v>
@@ -4127,33 +4098,30 @@
         <v>39</v>
       </c>
       <c r="AA30" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB30" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC30" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD30" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE30" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>5</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>130</v>
+    <row r="31" spans="1:31" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>81</v>
@@ -4164,14 +4132,14 @@
       <c r="G31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>32</v>
+      <c r="H31" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="14">
+        <v>13301331382</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>32</v>
@@ -4182,29 +4150,29 @@
       <c r="M31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N31" s="8" t="s">
-        <v>36</v>
+      <c r="N31" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
       <c r="S31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T31" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9">
-        <v>4008876526</v>
-      </c>
-      <c r="W31" s="8" t="s">
-        <v>56</v>
+      <c r="T31" s="9">
+        <v>4008186868</v>
+      </c>
+      <c r="U31" s="18"/>
+      <c r="V31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="X31" s="7" t="s">
         <v>32</v>
@@ -4216,27 +4184,383 @@
         <v>39</v>
       </c>
       <c r="AA31" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB31" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AC31" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD31" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE31" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>5</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="14">
+        <v>18515294666</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9">
+        <v>4008876526</v>
+      </c>
+      <c r="W32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE32" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>5</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="14">
+        <v>18515294666</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9">
+        <v>4008876526</v>
+      </c>
+      <c r="W33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA33" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC33" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE33" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>5</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" s="14">
+        <v>18621774035</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9">
+        <v>4008876526</v>
+      </c>
+      <c r="W34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE34" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>5</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9">
+        <v>4008876526</v>
+      </c>
+      <c r="W35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC35" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE35" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AE32" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="18189243756" xr:uid="{1F008C5B-47F0-4B1D-903F-49FE6CE1919E}"/>
-    <hyperlink ref="I21" r:id="rId2" display="18189243756" xr:uid="{D9826E0E-C9A8-4063-BAF2-4F2A552A644D}"/>
+    <hyperlink ref="I24" r:id="rId2" display="18189243756" xr:uid="{D9826E0E-C9A8-4063-BAF2-4F2A552A644D}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4244,15 +4568,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="abe9a1fc-9b1b-4145-a7c0-c219f34cbfe1" xsi:nil="true"/>
@@ -4263,7 +4578,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010035289B95AB6962459D297FEDC06642CB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31d4b9b804ee58645739dd064a24e0ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0a44472-358d-4f72-9b41-73280ab5bb44" xmlns:ns3="abe9a1fc-9b1b-4145-a7c0-c219f34cbfe1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d677dd6d8eb8b95637b08373aa39eb7" ns2:_="" ns3:_="">
     <xsd:import namespace="d0a44472-358d-4f72-9b41-73280ab5bb44"/>
@@ -4452,15 +4767,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CBFDA65-F57A-4E8B-BD77-12D11092E298}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44ADB57B-507C-4112-B3E9-93090F339229}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4471,7 +4787,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C13D46D9-C220-409F-B56D-43AC4C6EB64F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4488,4 +4804,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CBFDA65-F57A-4E8B-BD77-12D11092E298}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>